--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.392385673599624</v>
+        <v>1.050264827978696</v>
       </c>
       <c r="D2">
-        <v>0.1638670793190646</v>
+        <v>0.3010044991370782</v>
       </c>
       <c r="E2">
         <v>1.872383626006657</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9716812056956933</v>
+        <v>1.194885992271794</v>
       </c>
       <c r="D3">
-        <v>0.3312558084906154</v>
+        <v>0.2404003166471858</v>
       </c>
       <c r="E3">
         <v>1.872383626006657</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.772678724701813</v>
+        <v>0.9842762547185959</v>
       </c>
       <c r="D4">
-        <v>0.4397487806902252</v>
+        <v>0.3319325096132584</v>
       </c>
       <c r="E4">
         <v>1.872383626006657</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.8233951619055232</v>
+        <v>0.6720168418813248</v>
       </c>
       <c r="D5">
-        <v>0.4103222798849626</v>
+        <v>0.5061141733098915</v>
       </c>
       <c r="E5">
         <v>1.872383626006657</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2365002937725401</v>
+        <v>-0.1817074654141688</v>
       </c>
       <c r="D6">
-        <v>0.8130540920762472</v>
+        <v>0.8568912969935161</v>
       </c>
       <c r="E6">
         <v>1.620348383617591</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.2047201405123261</v>
+        <v>-0.2874160849894225</v>
       </c>
       <c r="D7">
-        <v>0.8377990520857679</v>
+        <v>0.7755383101645201</v>
       </c>
       <c r="E7">
         <v>1.620348383617591</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.3729202563344497</v>
+        <v>-0.3370678349915029</v>
       </c>
       <c r="D8">
-        <v>0.7092234806414304</v>
+        <v>0.738137713428662</v>
       </c>
       <c r="E8">
         <v>1.620348383617591</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.009348671830907804</v>
+        <v>-0.0138307112247822</v>
       </c>
       <c r="D9">
-        <v>0.9925413178113649</v>
+        <v>0.9890458813589216</v>
       </c>
       <c r="E9">
         <v>1.669333536985533</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.09380696694629144</v>
+        <v>-0.07025206961457434</v>
       </c>
       <c r="D10">
-        <v>0.9252662267997405</v>
+        <v>0.9444046199335046</v>
       </c>
       <c r="E10">
         <v>1.669333536985533</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.08310986043113994</v>
+        <v>-0.1198031897139542</v>
       </c>
       <c r="D11">
-        <v>0.933767486646595</v>
+        <v>0.9053441842806356</v>
       </c>
       <c r="E11">
         <v>1.672238267634417</v>
